--- a/Questionnaire/Questionnairemichael.xlsx
+++ b/Questionnaire/Questionnairemichael.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICWOL1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\bachelor-thesis\Questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4FAE3A-6034-4A82-9F61-E8AA4D6EF6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA98DCE-3F60-4369-B4A6-3136A9F00793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19830" yWindow="2715" windowWidth="31920" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8850" yWindow="3380" windowWidth="15830" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -479,36 +479,36 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="19.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="156.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -547,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -569,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -591,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
